--- a/dtpu_configurations/only_integer32/100mhz/mxu_5x5/power.xlsx
+++ b/dtpu_configurations/only_integer32/100mhz/mxu_5x5/power.xlsx
@@ -127,7 +127,7 @@
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="8.75" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.035180624574422836</v>
+        <v>0.05041361227631569</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.02188616245985031</v>
+        <v>0.01914908178150654</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.01400961447507143</v>
+        <v>0.014265398494899273</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.012637341395020485</v>
+        <v>0.011115819215774536</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>5.593803143710829E-5</v>
+        <v>0.0021329226437956095</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.003474671160802245</v>
+        <v>0.0035011854488402605</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>0.0019400001037865877</v>
@@ -199,10 +199,10 @@
         <v>1.2619483470916748</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12675437331199646</v>
+        <v>0.12789644300937653</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4779001474380493</v>
+        <v>1.4923758506774902</v>
       </c>
     </row>
   </sheetData>
